--- a/Complete-spreadsheets/EO/Cz-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/Cz-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A8C0B-E1BE-48EE-A52B-376AD39D641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82EC768-3742-4042-8069-92E3A522E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,23 +502,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>39.400545329497049</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10.588800645608201</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.9422965986298539</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.5961409688248978</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4.1816222747421046</v>
+      <c r="B2" s="4">
+        <v>26.89066200752319</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10.842861738612569</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.499119187263684</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.112897937027951</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.9238127025592699</v>
       </c>
       <c r="G2">
-        <v>61.709405817302127</v>
+        <v>47.26935357298666</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -540,23 +540,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>19.554609632266551</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.4196321811739399</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.7645858027852932</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.5803793512129918</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.6412126556056039</v>
+      <c r="B3" s="4">
+        <v>14.841178504788139</v>
+      </c>
+      <c r="C3" s="4">
+        <v>25.58169452198149</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.7529722307735423</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.9611830929635841</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.60830999349148</v>
       </c>
       <c r="G3">
-        <v>36.960419623044373</v>
+        <v>50.745338343998228</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -578,23 +578,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>25.854776821776479</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8.1940312347247506</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.4263272038979338</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.2928434432677149</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.0616929553851131</v>
+      <c r="B4" s="4">
+        <v>11.47690952667222</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29.28420112815628</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.3550480470243871</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.9520133843655052</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.6089347921987138</v>
       </c>
       <c r="G4">
-        <v>43.829671659052003</v>
+        <v>52.677106878417113</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -617,22 +617,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>26.89066200752319</v>
+        <v>39.835111709953956</v>
       </c>
       <c r="C5" s="4">
-        <v>10.842861738612569</v>
+        <v>12.845737496937341</v>
       </c>
       <c r="D5" s="4">
-        <v>4.499119187263684</v>
+        <v>5.6052151431915052</v>
       </c>
       <c r="E5" s="4">
-        <v>3.112897937027951</v>
+        <v>4.7914858181966888</v>
       </c>
       <c r="F5" s="4">
-        <v>1.9238127025592699</v>
+        <v>2.777332675119204</v>
       </c>
       <c r="G5">
-        <v>47.26935357298666</v>
+        <v>65.854882843398684</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -655,22 +655,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>14.841178504788139</v>
+        <v>11.00424477341751</v>
       </c>
       <c r="C6" s="4">
-        <v>25.58169452198149</v>
+        <v>15.999686228869299</v>
       </c>
       <c r="D6" s="4">
-        <v>4.7529722307735423</v>
+        <v>5.729757661366321</v>
       </c>
       <c r="E6" s="4">
-        <v>2.9611830929635841</v>
+        <v>2.622501490352962</v>
       </c>
       <c r="F6" s="4">
-        <v>2.60830999349148</v>
+        <v>2.207665538392336</v>
       </c>
       <c r="G6">
-        <v>50.745338343998228</v>
+        <v>37.56385569239842</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>11.47690952667222</v>
+        <v>33.159548954745553</v>
       </c>
       <c r="C7" s="4">
-        <v>29.28420112815628</v>
+        <v>16.967260771723129</v>
       </c>
       <c r="D7" s="4">
-        <v>5.3550480470243871</v>
+        <v>6.1696834471601179</v>
       </c>
       <c r="E7" s="4">
-        <v>2.9520133843655052</v>
+        <v>3.622695437765846</v>
       </c>
       <c r="F7" s="4">
-        <v>3.6089347921987138</v>
+        <v>3.4305714230950848</v>
       </c>
       <c r="G7">
-        <v>52.677106878417113</v>
+        <v>63.349760034489748</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>39.835111709953956</v>
+        <v>9.4929399976248767</v>
       </c>
       <c r="C8" s="4">
-        <v>12.845737496937341</v>
+        <v>17.15817427653737</v>
       </c>
       <c r="D8" s="4">
-        <v>5.6052151431915052</v>
+        <v>6.2156507655365214</v>
       </c>
       <c r="E8" s="4">
-        <v>4.7914858181966888</v>
+        <v>3.658971170512288</v>
       </c>
       <c r="F8" s="4">
-        <v>2.777332675119204</v>
+        <v>5.1863271584541444</v>
       </c>
       <c r="G8">
-        <v>65.854882843398684</v>
+        <v>41.712063368665198</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>11.00424477341751</v>
+        <v>23.495246472330781</v>
       </c>
       <c r="C9" s="4">
-        <v>15.999686228869299</v>
+        <v>10.670815844051971</v>
       </c>
       <c r="D9" s="4">
-        <v>5.729757661366321</v>
+        <v>7.3687829574659656</v>
       </c>
       <c r="E9" s="4">
-        <v>2.622501490352962</v>
+        <v>4.3035733791086237</v>
       </c>
       <c r="F9" s="4">
-        <v>2.207665538392336</v>
+        <v>4.539694536202072</v>
       </c>
       <c r="G9">
-        <v>37.56385569239842</v>
+        <v>50.378113189159421</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -806,23 +806,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>47.944957729377883</v>
-      </c>
-      <c r="C10" s="3">
-        <v>22.891881018106421</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.9603350751478503</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5.1705942612837532</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4.1402907022635311</v>
+      <c r="B10" s="4">
+        <v>7.2021610259089064</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21.046909173715051</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.3891163342488193</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.825692953596473</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.1872252366717726</v>
       </c>
       <c r="G10">
-        <v>86.108058786179427</v>
+        <v>44.651104724141007</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -845,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>33.159548954745553</v>
+        <v>38.769760321804533</v>
       </c>
       <c r="C11" s="4">
-        <v>16.967260771723129</v>
+        <v>10.668730141486209</v>
       </c>
       <c r="D11" s="4">
-        <v>6.1696834471601179</v>
+        <v>7.9348245933680071</v>
       </c>
       <c r="E11" s="4">
-        <v>3.622695437765846</v>
+        <v>2.891569361281308</v>
       </c>
       <c r="F11" s="4">
-        <v>3.4305714230950848</v>
+        <v>2.6967836506758438</v>
       </c>
       <c r="G11">
-        <v>63.349760034489748</v>
+        <v>62.961668068615907</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -886,22 +886,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>9.4929399976248767</v>
+        <v>28.754856672286959</v>
       </c>
       <c r="C12" s="4">
-        <v>17.15817427653737</v>
+        <v>11.406960338583289</v>
       </c>
       <c r="D12" s="4">
-        <v>6.2156507655365214</v>
+        <v>9.2348486310900473</v>
       </c>
       <c r="E12" s="4">
-        <v>3.658971170512288</v>
+        <v>3.9922545866598429</v>
       </c>
       <c r="F12" s="4">
-        <v>5.1863271584541444</v>
+        <v>3.4026435116110658</v>
       </c>
       <c r="G12">
-        <v>41.712063368665198</v>
+        <v>56.791563740231211</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -923,23 +923,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>24.688388461236158</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9.5715755525099926</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.3548912331283356</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7.3360063631956907</v>
-      </c>
-      <c r="F13" s="3">
-        <v>9.4692724044662295</v>
+      <c r="B13" s="4">
+        <v>15.01316363794891</v>
+      </c>
+      <c r="C13" s="4">
+        <v>51.220720048915098</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.5115532602194257</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.112625870652681</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.1551384751404337</v>
       </c>
       <c r="G13">
-        <v>57.420134014536387</v>
+        <v>84.013201292876559</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -961,23 +961,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>21.05323828547824</v>
-      </c>
-      <c r="C14" s="3">
-        <v>17.399971050397419</v>
-      </c>
-      <c r="D14" s="3">
-        <v>6.4350303127635318</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.6565961603661812</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.070475693547047</v>
+      <c r="B14" s="4">
+        <v>70.35009752674398</v>
+      </c>
+      <c r="C14" s="4">
+        <v>51.47876819621986</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.5156581546771868</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.2474349282082091</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.8785251868460877</v>
       </c>
       <c r="G14">
-        <v>48.615311502552409</v>
+        <v>145.47048399269531</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -999,23 +999,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>63.162866045230658</v>
-      </c>
-      <c r="C15" s="3">
-        <v>16.24231585470865</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6.7416233923503457</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9.837396594162982</v>
-      </c>
-      <c r="F15" s="3">
-        <v>8.9965377159044024</v>
+      <c r="B15" s="4">
+        <v>29.759722462198699</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13.6524038269845</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10.629628328289421</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6.4454313611967589</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.5068194672493043</v>
       </c>
       <c r="G15">
-        <v>104.980739602357</v>
+        <v>64.994005445918674</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>12</v>
@@ -1038,22 +1038,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>23.495246472330781</v>
+        <v>150.1617916984041</v>
       </c>
       <c r="C16" s="4">
-        <v>10.670815844051971</v>
+        <v>14.05321372027619</v>
       </c>
       <c r="D16" s="4">
-        <v>7.3687829574659656</v>
+        <v>11.401441282544059</v>
       </c>
       <c r="E16" s="4">
-        <v>4.3035733791086237</v>
+        <v>4.0522151910406947</v>
       </c>
       <c r="F16" s="4">
-        <v>4.539694536202072</v>
+        <v>2.5108107055518758</v>
       </c>
       <c r="G16">
-        <v>50.378113189159421</v>
+        <v>182.1794725978169</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>7.2021610259089064</v>
+        <v>38.054482109903127</v>
       </c>
       <c r="C17" s="4">
-        <v>21.046909173715051</v>
+        <v>37.480488255927071</v>
       </c>
       <c r="D17" s="4">
-        <v>7.3891163342488193</v>
+        <v>13.10097368244463</v>
       </c>
       <c r="E17" s="4">
-        <v>4.825692953596473</v>
+        <v>6.0691752850293286</v>
       </c>
       <c r="F17" s="4">
-        <v>4.1872252366717726</v>
+        <v>5.0049937782287071</v>
       </c>
       <c r="G17">
-        <v>44.651104724141007</v>
+        <v>99.71011311153292</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1113,23 +1113,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>23.071508432276421</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10.289251537558259</v>
-      </c>
-      <c r="D18" s="3">
-        <v>7.5041577414846863</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8.681581826378002</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6.1642374708247347</v>
+      <c r="B18" s="4">
+        <v>19.53855926336816</v>
+      </c>
+      <c r="C18" s="4">
+        <v>159.95467142252031</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14.978853913242309</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7.30484561160476</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.9044245818125991</v>
       </c>
       <c r="G18">
-        <v>55.710737008522123</v>
+        <v>204.68135479254809</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1152,22 +1152,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>38.769760321804533</v>
+        <v>64.717028754451078</v>
       </c>
       <c r="C19" s="4">
-        <v>10.668730141486209</v>
+        <v>19.823901400531209</v>
       </c>
       <c r="D19" s="4">
-        <v>7.9348245933680071</v>
+        <v>16.959144877645979</v>
       </c>
       <c r="E19" s="4">
-        <v>2.891569361281308</v>
+        <v>6.3385438854444178</v>
       </c>
       <c r="F19" s="4">
-        <v>2.6967836506758438</v>
+        <v>4.0178205260575517</v>
       </c>
       <c r="G19">
-        <v>62.961668068615907</v>
+        <v>111.8564394441302</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1189,23 +1189,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>38.140097137748917</v>
-      </c>
-      <c r="C20" s="3">
-        <v>20.845238860060501</v>
-      </c>
-      <c r="D20" s="3">
-        <v>9.1276213389537162</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5.7807047672364504</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5.3301631255514783</v>
+      <c r="B20" s="4">
+        <v>40.856271170744961</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14.335861633953741</v>
+      </c>
+      <c r="D20" s="4">
+        <v>18.592601824409378</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6.1426028104925052</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.8694720211044431</v>
       </c>
       <c r="G20">
-        <v>79.223825229551068</v>
+        <v>82.79680946070502</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1228,22 +1228,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>28.754856672286959</v>
+        <v>34.845605720432047</v>
       </c>
       <c r="C21" s="4">
-        <v>11.406960338583289</v>
+        <v>22.75787932334104</v>
       </c>
       <c r="D21" s="4">
-        <v>9.2348486310900473</v>
+        <v>21.94793949266759</v>
       </c>
       <c r="E21" s="4">
-        <v>3.9922545866598429</v>
+        <v>16.021979435303791</v>
       </c>
       <c r="F21" s="4">
-        <v>3.4026435116110658</v>
+        <v>24.214938281696799</v>
       </c>
       <c r="G21">
-        <v>56.791563740231211</v>
+        <v>119.7883422534413</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>15.01316363794891</v>
+        <v>50.387192073828537</v>
       </c>
       <c r="C22" s="4">
-        <v>51.220720048915098</v>
+        <v>23.37916527857168</v>
       </c>
       <c r="D22" s="4">
-        <v>9.5115532602194257</v>
+        <v>22.21322924824478</v>
       </c>
       <c r="E22" s="4">
-        <v>4.112625870652681</v>
+        <v>21.12458855439608</v>
       </c>
       <c r="F22" s="4">
-        <v>4.1551384751404337</v>
+        <v>13.07159748269866</v>
       </c>
       <c r="G22">
-        <v>84.013201292876559</v>
+        <v>130.1757726377397</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1304,22 +1304,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>70.35009752674398</v>
+        <v>34.945078453366399</v>
       </c>
       <c r="C23" s="4">
-        <v>51.47876819621986</v>
+        <v>20.16433690517173</v>
       </c>
       <c r="D23" s="4">
-        <v>9.5156581546771868</v>
+        <v>42.146012309315019</v>
       </c>
       <c r="E23" s="4">
-        <v>8.2474349282082091</v>
+        <v>6.2676306087541898</v>
       </c>
       <c r="F23" s="4">
-        <v>5.8785251868460877</v>
+        <v>3.407132420712816</v>
       </c>
       <c r="G23">
-        <v>145.47048399269531</v>
+        <v>106.9301906973202</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1341,23 +1341,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3">
-        <v>12.190134125708459</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8.8583377692773979</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9.5429609374951827</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3.2282937297445562</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.4088400471778422</v>
+      <c r="B24" s="4">
+        <v>50.659233559510163</v>
+      </c>
+      <c r="C24" s="4">
+        <v>33.479581913383001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>83.417951004292576</v>
+      </c>
+      <c r="E24" s="4">
+        <v>26.923695312195509</v>
+      </c>
+      <c r="F24" s="4">
+        <v>29.71627493097499</v>
       </c>
       <c r="G24">
-        <v>36.228566609403437</v>
+        <v>224.19673672035631</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -1380,22 +1380,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>15.913254393120351</v>
+        <v>39.400545329497049</v>
       </c>
       <c r="C25" s="3">
-        <v>9.7758433983730786</v>
+        <v>10.588800645608201</v>
       </c>
       <c r="D25" s="3">
-        <v>10.57914287523484</v>
+        <v>2.9422965986298539</v>
       </c>
       <c r="E25" s="3">
-        <v>24.21436637922487</v>
+        <v>4.5961409688248978</v>
       </c>
       <c r="F25" s="3">
-        <v>9.8121404119260731</v>
+        <v>4.1816222747421046</v>
       </c>
       <c r="G25">
-        <v>70.294747457879197</v>
+        <v>61.709405817302127</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1417,23 +1417,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>29.759722462198699</v>
-      </c>
-      <c r="C26" s="4">
-        <v>13.6524038269845</v>
-      </c>
-      <c r="D26" s="4">
-        <v>10.629628328289421</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6.4454313611967589</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4.5068194672493043</v>
+      <c r="B26" s="3">
+        <v>19.554609632266551</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8.4196321811739399</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.7645858027852932</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.5803793512129918</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.6412126556056039</v>
       </c>
       <c r="G26">
-        <v>64.994005445918674</v>
+        <v>36.960419623044373</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1455,23 +1455,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>150.1617916984041</v>
-      </c>
-      <c r="C27" s="4">
-        <v>14.05321372027619</v>
-      </c>
-      <c r="D27" s="4">
-        <v>11.401441282544059</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4.0522151910406947</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2.5108107055518758</v>
+      <c r="B27" s="3">
+        <v>25.854776821776479</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8.1940312347247506</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.4263272038979338</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.2928434432677149</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.0616929553851131</v>
       </c>
       <c r="G27">
-        <v>182.1794725978169</v>
+        <v>43.829671659052003</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>14</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1494,22 +1494,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>471.85888973422982</v>
+        <v>47.944957729377883</v>
       </c>
       <c r="C28" s="3">
-        <v>47.256292400423753</v>
+        <v>22.891881018106421</v>
       </c>
       <c r="D28" s="3">
-        <v>12.01632065932171</v>
+        <v>5.9603350751478503</v>
       </c>
       <c r="E28" s="3">
-        <v>5.2112918166203688</v>
+        <v>5.1705942612837532</v>
       </c>
       <c r="F28" s="3">
-        <v>2.7358784502824882</v>
+        <v>4.1402907022635311</v>
       </c>
       <c r="G28">
-        <v>539.07867306087815</v>
+        <v>86.108058786179427</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1532,22 +1532,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>33.389288644564473</v>
+        <v>24.688388461236158</v>
       </c>
       <c r="C29" s="3">
-        <v>11.388126668596</v>
+        <v>9.5715755525099926</v>
       </c>
       <c r="D29" s="3">
-        <v>12.884550198117219</v>
+        <v>6.3548912331283356</v>
       </c>
       <c r="E29" s="3">
-        <v>13.67198618463417</v>
+        <v>7.3360063631956907</v>
       </c>
       <c r="F29" s="3">
-        <v>5.2545837129328428</v>
+        <v>9.4692724044662295</v>
       </c>
       <c r="G29">
-        <v>76.588535408844706</v>
+        <v>57.420134014536387</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1570,22 +1570,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>36.531669866485053</v>
+        <v>21.05323828547824</v>
       </c>
       <c r="C30" s="3">
-        <v>13.51647248545607</v>
+        <v>17.399971050397419</v>
       </c>
       <c r="D30" s="3">
-        <v>13.021416557286351</v>
+        <v>6.4350303127635318</v>
       </c>
       <c r="E30" s="3">
-        <v>7.7112865062041864</v>
+        <v>2.6565961603661812</v>
       </c>
       <c r="F30" s="3">
-        <v>5.8590823046404026</v>
+        <v>1.070475693547047</v>
       </c>
       <c r="G30">
-        <v>76.639927720072066</v>
+        <v>48.615311502552409</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1608,22 +1608,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>16.00308128556755</v>
+        <v>63.162866045230658</v>
       </c>
       <c r="C31" s="3">
-        <v>10.588627918930101</v>
+        <v>16.24231585470865</v>
       </c>
       <c r="D31" s="3">
-        <v>13.04166096033658</v>
+        <v>6.7416233923503457</v>
       </c>
       <c r="E31" s="3">
-        <v>14.53430703248403</v>
+        <v>9.837396594162982</v>
       </c>
       <c r="F31" s="3">
-        <v>13.11012523653263</v>
+        <v>8.9965377159044024</v>
       </c>
       <c r="G31">
-        <v>67.277802433850894</v>
+        <v>104.980739602357</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1645,23 +1645,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>38.054482109903127</v>
-      </c>
-      <c r="C32" s="4">
-        <v>37.480488255927071</v>
-      </c>
-      <c r="D32" s="4">
-        <v>13.10097368244463</v>
-      </c>
-      <c r="E32" s="4">
-        <v>6.0691752850293286</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5.0049937782287071</v>
+      <c r="B32" s="3">
+        <v>23.071508432276421</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10.289251537558259</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.5041577414846863</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8.681581826378002</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6.1642374708247347</v>
       </c>
       <c r="G32">
-        <v>99.71011311153292</v>
+        <v>55.710737008522123</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>6</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1684,22 +1684,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>24.539135564202429</v>
+        <v>38.140097137748917</v>
       </c>
       <c r="C33" s="3">
-        <v>20.943112459358769</v>
+        <v>20.845238860060501</v>
       </c>
       <c r="D33" s="3">
-        <v>13.390351911751459</v>
+        <v>9.1276213389537162</v>
       </c>
       <c r="E33" s="3">
-        <v>4.8969614353098834</v>
+        <v>5.7807047672364504</v>
       </c>
       <c r="F33" s="3">
-        <v>1.946533209733031</v>
+        <v>5.3301631255514783</v>
       </c>
       <c r="G33">
-        <v>65.716094580355573</v>
+        <v>79.223825229551068</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1722,22 +1722,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>44.804413153259709</v>
+        <v>12.190134125708459</v>
       </c>
       <c r="C34" s="3">
-        <v>17.94057050437576</v>
+        <v>8.8583377692773979</v>
       </c>
       <c r="D34" s="3">
-        <v>13.580684558235429</v>
+        <v>9.5429609374951827</v>
       </c>
       <c r="E34" s="3">
-        <v>7.7825887845969044</v>
+        <v>3.2282937297445562</v>
       </c>
       <c r="F34" s="3">
-        <v>6.4180166597154864</v>
+        <v>2.4088400471778422</v>
       </c>
       <c r="G34">
-        <v>90.526273660183293</v>
+        <v>36.228566609403437</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1759,23 +1759,23 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
-        <v>19.53855926336816</v>
-      </c>
-      <c r="C35" s="4">
-        <v>159.95467142252031</v>
-      </c>
-      <c r="D35" s="4">
-        <v>14.978853913242309</v>
-      </c>
-      <c r="E35" s="4">
-        <v>7.30484561160476</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2.9044245818125991</v>
+      <c r="B35" s="3">
+        <v>15.913254393120351</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9.7758433983730786</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10.57914287523484</v>
+      </c>
+      <c r="E35" s="3">
+        <v>24.21436637922487</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9.8121404119260731</v>
       </c>
       <c r="G35">
-        <v>204.68135479254809</v>
+        <v>70.294747457879197</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>9</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>12</v>
@@ -1798,22 +1798,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>25.290854958109659</v>
+        <v>471.85888973422982</v>
       </c>
       <c r="C36" s="3">
-        <v>23.892549657009258</v>
+        <v>47.256292400423753</v>
       </c>
       <c r="D36" s="3">
-        <v>16.12586799703287</v>
+        <v>12.01632065932171</v>
       </c>
       <c r="E36" s="3">
-        <v>5.1594254321891038</v>
+        <v>5.2112918166203688</v>
       </c>
       <c r="F36" s="3">
-        <v>3.2242325046971461</v>
+        <v>2.7358784502824882</v>
       </c>
       <c r="G36">
-        <v>73.692930549038039</v>
+        <v>539.07867306087815</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1836,22 +1836,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>49.117377809285223</v>
+        <v>33.389288644564473</v>
       </c>
       <c r="C37" s="3">
-        <v>12.624034646428109</v>
+        <v>11.388126668596</v>
       </c>
       <c r="D37" s="3">
-        <v>16.398241538100091</v>
+        <v>12.884550198117219</v>
       </c>
       <c r="E37" s="3">
-        <v>20.79498413857845</v>
+        <v>13.67198618463417</v>
       </c>
       <c r="F37" s="3">
-        <v>10.314219417748291</v>
+        <v>5.2545837129328428</v>
       </c>
       <c r="G37">
-        <v>109.2488575501402</v>
+        <v>76.588535408844706</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1873,23 +1873,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>64.717028754451078</v>
-      </c>
-      <c r="C38" s="4">
-        <v>19.823901400531209</v>
-      </c>
-      <c r="D38" s="4">
-        <v>16.959144877645979</v>
-      </c>
-      <c r="E38" s="4">
-        <v>6.3385438854444178</v>
-      </c>
-      <c r="F38" s="4">
-        <v>4.0178205260575517</v>
+      <c r="B38" s="3">
+        <v>36.531669866485053</v>
+      </c>
+      <c r="C38" s="3">
+        <v>13.51647248545607</v>
+      </c>
+      <c r="D38" s="3">
+        <v>13.021416557286351</v>
+      </c>
+      <c r="E38" s="3">
+        <v>7.7112865062041864</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5.8590823046404026</v>
       </c>
       <c r="G38">
-        <v>111.8564394441302</v>
+        <v>76.639927720072066</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>12</v>
@@ -1911,23 +1911,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>40.856271170744961</v>
-      </c>
-      <c r="C39" s="4">
-        <v>14.335861633953741</v>
-      </c>
-      <c r="D39" s="4">
-        <v>18.592601824409378</v>
-      </c>
-      <c r="E39" s="4">
-        <v>6.1426028104925052</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2.8694720211044431</v>
+      <c r="B39" s="3">
+        <v>16.00308128556755</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10.588627918930101</v>
+      </c>
+      <c r="D39" s="3">
+        <v>13.04166096033658</v>
+      </c>
+      <c r="E39" s="3">
+        <v>14.53430703248403</v>
+      </c>
+      <c r="F39" s="3">
+        <v>13.11012523653263</v>
       </c>
       <c r="G39">
-        <v>82.79680946070502</v>
+        <v>67.277802433850894</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>18</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1949,23 +1949,23 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
-        <v>34.845605720432047</v>
-      </c>
-      <c r="C40" s="4">
-        <v>22.75787932334104</v>
-      </c>
-      <c r="D40" s="4">
-        <v>21.94793949266759</v>
-      </c>
-      <c r="E40" s="4">
-        <v>16.021979435303791</v>
-      </c>
-      <c r="F40" s="4">
-        <v>24.214938281696799</v>
+      <c r="B40" s="3">
+        <v>24.539135564202429</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20.943112459358769</v>
+      </c>
+      <c r="D40" s="3">
+        <v>13.390351911751459</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4.8969614353098834</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.946533209733031</v>
       </c>
       <c r="G40">
-        <v>119.7883422534413</v>
+        <v>65.716094580355573</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>20</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>12</v>
@@ -1987,23 +1987,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>50.387192073828537</v>
-      </c>
-      <c r="C41" s="4">
-        <v>23.37916527857168</v>
-      </c>
-      <c r="D41" s="4">
-        <v>22.21322924824478</v>
-      </c>
-      <c r="E41" s="4">
-        <v>21.12458855439608</v>
-      </c>
-      <c r="F41" s="4">
-        <v>13.07159748269866</v>
+      <c r="B41" s="3">
+        <v>44.804413153259709</v>
+      </c>
+      <c r="C41" s="3">
+        <v>17.94057050437576</v>
+      </c>
+      <c r="D41" s="3">
+        <v>13.580684558235429</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7.7825887845969044</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6.4180166597154864</v>
       </c>
       <c r="G41">
-        <v>130.1757726377397</v>
+        <v>90.526273660183293</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>21</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
@@ -2026,22 +2026,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>120.50103766278011</v>
+        <v>25.290854958109659</v>
       </c>
       <c r="C42" s="3">
-        <v>59.320333753276692</v>
+        <v>23.892549657009258</v>
       </c>
       <c r="D42" s="3">
-        <v>23.400780483198339</v>
+        <v>16.12586799703287</v>
       </c>
       <c r="E42" s="3">
-        <v>20.08060157096784</v>
+        <v>5.1594254321891038</v>
       </c>
       <c r="F42" s="3">
-        <v>16.373728807156009</v>
+        <v>3.2242325046971461</v>
       </c>
       <c r="G42">
-        <v>239.67648227737891</v>
+        <v>73.692930549038039</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2064,22 +2064,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>37.704528277227652</v>
+        <v>49.117377809285223</v>
       </c>
       <c r="C43" s="3">
-        <v>20.59911801727954</v>
+        <v>12.624034646428109</v>
       </c>
       <c r="D43" s="3">
-        <v>34.851453941034627</v>
+        <v>16.398241538100091</v>
       </c>
       <c r="E43" s="3">
-        <v>12.25639813171944</v>
+        <v>20.79498413857845</v>
       </c>
       <c r="F43" s="3">
-        <v>9.8370961922075537</v>
+        <v>10.314219417748291</v>
       </c>
       <c r="G43">
-        <v>115.2485945594688</v>
+        <v>109.2488575501402</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2102,22 +2102,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>31.809975111867729</v>
+        <v>120.50103766278011</v>
       </c>
       <c r="C44" s="3">
-        <v>20.07246407030296</v>
+        <v>59.320333753276692</v>
       </c>
       <c r="D44" s="3">
-        <v>41.951201893381082</v>
+        <v>23.400780483198339</v>
       </c>
       <c r="E44" s="3">
-        <v>12.806902609174299</v>
+        <v>20.08060157096784</v>
       </c>
       <c r="F44" s="3">
-        <v>5.4053825924563341</v>
+        <v>16.373728807156009</v>
       </c>
       <c r="G44">
-        <v>112.0459262771824</v>
+        <v>239.67648227737891</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2139,23 +2139,23 @@
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
-        <v>34.945078453366399</v>
-      </c>
-      <c r="C45" s="4">
-        <v>20.16433690517173</v>
-      </c>
-      <c r="D45" s="4">
-        <v>42.146012309315019</v>
-      </c>
-      <c r="E45" s="4">
-        <v>6.2676306087541898</v>
-      </c>
-      <c r="F45" s="4">
-        <v>3.407132420712816</v>
+      <c r="B45" s="3">
+        <v>37.704528277227652</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20.59911801727954</v>
+      </c>
+      <c r="D45" s="3">
+        <v>34.851453941034627</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12.25639813171944</v>
+      </c>
+      <c r="F45" s="3">
+        <v>9.8370961922075537</v>
       </c>
       <c r="G45">
-        <v>106.9301906973202</v>
+        <v>115.2485945594688</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -2178,22 +2178,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>264.98865781714369</v>
+        <v>31.809975111867729</v>
       </c>
       <c r="C46" s="3">
-        <v>66.851056881614511</v>
+        <v>20.07246407030296</v>
       </c>
       <c r="D46" s="3">
-        <v>56.717365715276117</v>
+        <v>41.951201893381082</v>
       </c>
       <c r="E46" s="3">
-        <v>30.894842985082111</v>
+        <v>12.806902609174299</v>
       </c>
       <c r="F46" s="3">
-        <v>36.786247922306231</v>
+        <v>5.4053825924563341</v>
       </c>
       <c r="G46">
-        <v>456.23817132142261</v>
+        <v>112.0459262771824</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2215,23 +2215,23 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4">
-        <v>50.659233559510163</v>
-      </c>
-      <c r="C47" s="4">
-        <v>33.479581913383001</v>
-      </c>
-      <c r="D47" s="4">
-        <v>83.417951004292576</v>
-      </c>
-      <c r="E47" s="4">
-        <v>26.923695312195509</v>
-      </c>
-      <c r="F47" s="4">
-        <v>29.71627493097499</v>
+      <c r="B47" s="3">
+        <v>264.98865781714369</v>
+      </c>
+      <c r="C47" s="3">
+        <v>66.851056881614511</v>
+      </c>
+      <c r="D47" s="3">
+        <v>56.717365715276117</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30.894842985082111</v>
+      </c>
+      <c r="F47" s="3">
+        <v>36.786247922306231</v>
       </c>
       <c r="G47">
-        <v>224.19673672035631</v>
+        <v>456.23817132142261</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2240,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>12</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
@@ -2364,9 +2364,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
-    <sortCondition ref="D2:D58"/>
-    <sortCondition ref="F2:F58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
